--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -94,19 +94,22 @@
     <t>MJBeta1</t>
   </si>
   <si>
+    <t>MJBeta2</t>
+  </si>
+  <si>
     <t>MJBeta3</t>
   </si>
   <si>
     <t>路由区</t>
   </si>
   <si>
-    <t>MJBeta202(center)</t>
+    <t>MJBeta1000(center)</t>
   </si>
   <si>
     <t>#中心服</t>
   </si>
   <si>
-    <t>MJBeta203(robot)</t>
+    <t>MJBeta1001(robot)</t>
   </si>
   <si>
     <t>#机器人</t>
@@ -288,12 +291,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1116,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G9"/>
+  <dimension ref="C3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1191,55 +1194,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="3">
-        <v>3</v>
+    <row r="7" s="1" customFormat="1" spans="3:6">
+      <c r="C7" s="5">
+        <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="3">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3">
-        <v>203</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5">
-        <v>203</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -100,19 +100,22 @@
     <t>MJBeta3</t>
   </si>
   <si>
+    <t>MJBeta1000(center)</t>
+  </si>
+  <si>
+    <t>#中心服</t>
+  </si>
+  <si>
+    <t>MJBeta1001(robot)</t>
+  </si>
+  <si>
+    <t>#机器人</t>
+  </si>
+  <si>
+    <t>MJBeta1002(router)</t>
+  </si>
+  <si>
     <t>路由区</t>
-  </si>
-  <si>
-    <t>MJBeta1000(center)</t>
-  </si>
-  <si>
-    <t>#中心服</t>
-  </si>
-  <si>
-    <t>MJBeta1001(robot)</t>
-  </si>
-  <si>
-    <t>#机器人</t>
   </si>
 </sst>
 </file>
@@ -291,12 +294,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1119,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G10"/>
+  <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1208,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:6">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1220,9 +1223,6 @@
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -1236,10 +1236,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -1253,11 +1253,33 @@
         <v>1001</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>路由区</t>
+  </si>
+  <si>
+    <t>MJBeta1011</t>
+  </si>
+  <si>
+    <t>版号区</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1131,7 @@
   <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1276,10 +1282,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="3:7">
+      <c r="C12" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1011</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
